--- a/output/database_metadata.xlsx
+++ b/output/database_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93370D5-0086-A14A-8BB3-F4001D6B9AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E3061-DA09-1043-9B93-77A13CB5750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39940" yWindow="3420" windowWidth="27640" windowHeight="16940" xr2:uid="{28DC145B-9D0B-FA42-84DE-7D6B10444FF0}"/>
+    <workbookView xWindow="5480" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{28DC145B-9D0B-FA42-84DE-7D6B10444FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="2" r:id="rId1"/>
@@ -300,24 +300,15 @@
     <t>Average requirement source (EFSA, IOM)</t>
   </si>
   <si>
-    <t>Coefficient of variaiton of the average requirement</t>
-  </si>
-  <si>
     <t>Unique id for the intake distribution (Nutrient-ISO3-Sex-Age group)</t>
   </si>
   <si>
     <t>Status of the distribution shape (known from Passerrel et al. XXXX or borrowed from most similar country)</t>
   </si>
   <si>
-    <t>Source of the distribution shape when borrowed from most simialr country (form opposite sex, from closest age group, from most simalr country)</t>
-  </si>
-  <si>
     <t>T/F</t>
   </si>
   <si>
-    <t>The unique id of the distribution providing the shape informaiton</t>
-  </si>
-  <si>
     <t>no/yes</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>Log-normal distribution standard deviation parameter</t>
   </si>
   <si>
-    <t>Mean of the log-normal distributoon</t>
-  </si>
-  <si>
     <t>Shape parameter of the gamma distribution shifted to match the GDD mean</t>
   </si>
   <si>
@@ -370,6 +358,18 @@
   </si>
   <si>
     <t xml:space="preserve">Availability of mean intake in the GDD (reported or borrowed from another country) </t>
+  </si>
+  <si>
+    <t>Coefficient of variation of the average requirement</t>
+  </si>
+  <si>
+    <t>Source of the distribution shape when borrowed from most similar country (form opposite sex, from closest age group, from most similar country)</t>
+  </si>
+  <si>
+    <t>The unique id of the distribution providing the shape information</t>
+  </si>
+  <si>
+    <t>Mean of the log-normal distribution</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B48B7-A351-7B4C-ADD6-96DB7C830C20}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -983,7 +983,7 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1004,7 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1012,7 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>55</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
